--- a/data/trans_camb/IP16A01-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16A01-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-57,27; -18,23</t>
+          <t>-56,58; -20,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-62,14; -7,83</t>
+          <t>-57,78; -7,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-66,82; -23,34</t>
+          <t>-69,69; -25,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-56,15; -21,88</t>
+          <t>-55,19; -23,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-62,27; -20,5</t>
+          <t>-62,6; -21,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-81,64; -28,22</t>
+          <t>-83,11; -28,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-51,98; -26,01</t>
+          <t>-50,71; -26,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-52,28; -21,43</t>
+          <t>-53,18; -20,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-68,24; -33,04</t>
+          <t>-69,8; -33,65</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,27; -18,23</t>
+          <t>-56,58; -20,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,14; -7,83</t>
+          <t>-57,78; -7,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-66,82; -23,34</t>
+          <t>-69,69; -25,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-56,15; -21,88</t>
+          <t>-55,19; -23,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,27; -20,5</t>
+          <t>-62,6; -21,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-81,64; -28,22</t>
+          <t>-83,11; -28,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,98; -26,01</t>
+          <t>-50,71; -26,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,28; -21,43</t>
+          <t>-53,18; -20,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-68,24; -33,04</t>
+          <t>-69,8; -33,65</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-47,46; -31,53</t>
+          <t>-48,17; -31,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-54,5; -36,05</t>
+          <t>-52,92; -35,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-49,72; -32,31</t>
+          <t>-49,05; -31,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-40,33; -24,24</t>
+          <t>-40,47; -23,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-48,2; -31,0</t>
+          <t>-47,95; -31,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-53,02; -32,76</t>
+          <t>-53,86; -32,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-42,23; -30,6</t>
+          <t>-41,3; -29,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-47,94; -35,9</t>
+          <t>-48,61; -35,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-48,46; -35,29</t>
+          <t>-48,21; -34,86</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-47,46; -31,53</t>
+          <t>-48,17; -31,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,5; -36,05</t>
+          <t>-52,92; -35,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,72; -32,31</t>
+          <t>-49,05; -31,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,33; -24,24</t>
+          <t>-40,47; -23,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,2; -31,0</t>
+          <t>-47,95; -31,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,02; -32,76</t>
+          <t>-53,86; -32,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,23; -30,6</t>
+          <t>-41,3; -29,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,94; -35,9</t>
+          <t>-48,61; -35,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-48,46; -35,29</t>
+          <t>-48,21; -34,86</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-46,54; -21,3</t>
+          <t>-46,72; -22,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-67,56; -37,22</t>
+          <t>-66,82; -37,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-55,38; -27,38</t>
+          <t>-56,16; -28,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-44,61; -19,34</t>
+          <t>-44,48; -19,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-50,97; -23,03</t>
+          <t>-52,76; -23,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-52,9; -26,9</t>
+          <t>-54,07; -28,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-42,43; -23,93</t>
+          <t>-41,17; -24,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-54,85; -32,85</t>
+          <t>-54,24; -32,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-49,82; -31,59</t>
+          <t>-49,58; -31,36</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-46,54; -21,3</t>
+          <t>-46,72; -22,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-67,56; -37,22</t>
+          <t>-66,82; -37,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-55,38; -27,38</t>
+          <t>-56,16; -28,83</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-44,61; -19,34</t>
+          <t>-44,48; -19,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-50,97; -23,03</t>
+          <t>-52,76; -23,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-52,9; -26,9</t>
+          <t>-54,07; -28,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-42,43; -23,93</t>
+          <t>-41,17; -24,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-54,85; -32,85</t>
+          <t>-54,24; -32,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-49,82; -31,59</t>
+          <t>-49,58; -31,36</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-43,91; -31,37</t>
+          <t>-43,94; -31,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-52,12; -37,51</t>
+          <t>-52,53; -37,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-48,26; -34,4</t>
+          <t>-47,98; -34,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-39,52; -27,04</t>
+          <t>-39,21; -25,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-45,57; -31,75</t>
+          <t>-45,96; -31,5</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-51,23; -34,8</t>
+          <t>-52,52; -35,72</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-40,45; -31,2</t>
+          <t>-39,74; -31,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-46,98; -36,29</t>
+          <t>-46,83; -36,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-47,5; -36,95</t>
+          <t>-48,03; -37,43</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-43,91; -31,37</t>
+          <t>-43,94; -31,16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-52,12; -37,51</t>
+          <t>-52,53; -37,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-48,26; -34,4</t>
+          <t>-47,98; -34,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-39,52; -27,04</t>
+          <t>-39,21; -25,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-45,57; -31,75</t>
+          <t>-45,96; -31,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-51,23; -34,8</t>
+          <t>-52,52; -35,72</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-40,45; -31,2</t>
+          <t>-39,74; -31,36</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-46,98; -36,29</t>
+          <t>-46,83; -36,71</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-47,5; -36,95</t>
+          <t>-48,03; -37,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A01-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16A01-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-38,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-40,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-65,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-37,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-26,72</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-44,62</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-38,3</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-35,27</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-54,88</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,15; -24,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,09; -20,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,13; -33,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,16; -20,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,28; -7,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,97; -22,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,93; -25,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,39; -20,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,63; -36,62</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,88%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,15; -24,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,09; -20,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,13; -33,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,16; -20,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,28; -7,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,97; -22,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,93; -25,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,39; -20,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,63; -36,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-37,55</t>
+          <t>-31,8</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-26,72</t>
+          <t>-39,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-45,29</t>
+          <t>-38,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-38,88</t>
+          <t>-39,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-40,06</t>
+          <t>-44,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-55,51</t>
+          <t>-40,42</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-38,3</t>
+          <t>-35,89</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-35,27</t>
+          <t>-41,85</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-49,9</t>
+          <t>-39,53</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-56,58; -20,7</t>
+          <t>-40,79; -24,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-57,78; -7,85</t>
+          <t>-48,25; -30,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-69,69; -25,25</t>
+          <t>-53,18; -18,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-55,19; -23,87</t>
+          <t>-48,16; -31,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-62,6; -21,11</t>
+          <t>-53,61; -35,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-83,11; -28,06</t>
+          <t>-49,86; -31,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-50,71; -26,43</t>
+          <t>-41,82; -29,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-53,18; -20,2</t>
+          <t>-47,8; -35,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-69,8; -33,65</t>
+          <t>-46,73; -26,06</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-37,55%</t>
+          <t>-31,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-26,72%</t>
+          <t>-39,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-45,29%</t>
+          <t>-38,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-38,88%</t>
+          <t>-39,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-40,06%</t>
+          <t>-44,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-55,51%</t>
+          <t>-40,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-38,3%</t>
+          <t>-35,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-35,27%</t>
+          <t>-41,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-49,9%</t>
+          <t>-39,53%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,58; -20,7</t>
+          <t>-40,79; -24,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-57,78; -7,85</t>
+          <t>-48,25; -30,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-69,69; -25,25</t>
+          <t>-53,18; -18,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-55,19; -23,87</t>
+          <t>-48,16; -31,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,6; -21,11</t>
+          <t>-53,61; -35,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-83,11; -28,06</t>
+          <t>-49,86; -31,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-50,71; -26,43</t>
+          <t>-41,82; -29,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,18; -20,2</t>
+          <t>-47,8; -35,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-69,8; -33,65</t>
+          <t>-46,73; -26,06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-39,42</t>
+          <t>-31,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-44,46</t>
+          <t>-36,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-40,15</t>
+          <t>-40,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-31,8</t>
+          <t>-32,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-39,16</t>
+          <t>-51,54</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-44,58</t>
+          <t>-41,14</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-35,89</t>
+          <t>-32,13</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-41,85</t>
+          <t>-43,96</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-42,23</t>
+          <t>-41,04</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-48,17; -31,84</t>
+          <t>-47,14; -19,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-52,92; -35,3</t>
+          <t>-51,35; -21,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-49,05; -31,59</t>
+          <t>-54,41; -28,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-40,47; -23,75</t>
+          <t>-46,8; -21,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,95; -31,22</t>
+          <t>-68,11; -37,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-53,86; -32,85</t>
+          <t>-56,98; -28,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-41,3; -29,61</t>
+          <t>-40,49; -23,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-48,61; -35,83</t>
+          <t>-54,86; -33,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-48,21; -34,86</t>
+          <t>-50,52; -32,02</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-39,42%</t>
+          <t>-31,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-44,46%</t>
+          <t>-36,36%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-40,15%</t>
+          <t>-40,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-31,8%</t>
+          <t>-32,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-39,16%</t>
+          <t>-51,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-44,58%</t>
+          <t>-41,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-35,89%</t>
+          <t>-32,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-41,85%</t>
+          <t>-43,96%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-42,23%</t>
+          <t>-41,04%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-48,17; -31,84</t>
+          <t>-47,14; -19,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,92; -35,3</t>
+          <t>-51,35; -21,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,05; -31,59</t>
+          <t>-54,41; -28,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,47; -23,75</t>
+          <t>-46,8; -21,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,95; -31,22</t>
+          <t>-68,11; -37,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,86; -32,85</t>
+          <t>-56,98; -28,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-41,3; -29,61</t>
+          <t>-40,49; -23,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,61; -35,83</t>
+          <t>-54,86; -33,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-48,21; -34,86</t>
+          <t>-50,52; -32,02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-32,96</t>
+          <t>-32,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-51,54</t>
+          <t>-38,64</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>-41,47</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>-37,6</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-44,86</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>-40,97</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-31,24</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-36,36</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-40,63</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-32,13</t>
+          <t>-35,28</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-43,96</t>
+          <t>-41,7</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-40,81</t>
+          <t>-41,21</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-46,72; -22,25</t>
+          <t>-39,3; -26,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-66,82; -37,44</t>
+          <t>-46,55; -32,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-56,16; -28,83</t>
+          <t>-51,3; -23,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-44,48; -19,93</t>
+          <t>-44,12; -31,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-52,76; -23,7</t>
+          <t>-52,45; -37,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-54,07; -28,42</t>
+          <t>-47,0; -33,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-41,17; -24,06</t>
+          <t>-39,59; -30,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-54,24; -32,48</t>
+          <t>-46,92; -36,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-49,58; -31,36</t>
+          <t>-47,14; -31,58</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-32,96%</t>
+          <t>-32,77%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-51,54%</t>
+          <t>-38,64%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>-41,47%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-37,6%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-44,86%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>-40,97%</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-31,24%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-36,36%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-40,63%</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-32,13%</t>
+          <t>-35,28%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-43,96%</t>
+          <t>-41,7%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-40,81%</t>
+          <t>-41,21%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-46,72; -22,25</t>
+          <t>-39,3; -26,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-66,82; -37,44</t>
+          <t>-46,55; -32,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-56,16; -28,83</t>
+          <t>-51,3; -23,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-44,48; -19,93</t>
+          <t>-44,12; -31,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-52,76; -23,7</t>
+          <t>-52,45; -37,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-54,07; -28,42</t>
+          <t>-47,0; -33,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-41,17; -24,06</t>
+          <t>-39,59; -30,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-54,24; -32,48</t>
+          <t>-46,92; -36,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-49,58; -31,36</t>
+          <t>-47,14; -31,58</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-37,6</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-44,86</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-40,79</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-32,77</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-38,64</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-44,36</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-35,28</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-41,7</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-42,47</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-43,94; -31,16</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-52,53; -37,48</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-47,98; -34,08</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-39,21; -25,94</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-45,96; -31,5</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-52,52; -35,72</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-39,74; -31,36</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-46,83; -36,71</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-48,03; -37,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-37,6%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-44,86%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-40,79%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-32,77%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-38,64%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-44,36%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-35,28%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-41,7%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-42,47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-43,94; -31,16</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-52,53; -37,48</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-47,98; -34,08</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-39,21; -25,94</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-45,96; -31,5</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-52,52; -35,72</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-39,74; -31,36</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-46,83; -36,71</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-48,03; -37,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
